--- a/upload/excel/2504_경남중_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2504_경남중_발주서_이가에프엔비_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AK20"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -766,6 +767,11 @@
       <c r="AK5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -839,6 +845,9 @@
           <t>90</t>
         </is>
       </c>
+      <c r="AL6" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -917,6 +926,9 @@
         <is>
           <t>14.5</t>
         </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="8">
@@ -988,6 +1000,9 @@
         <is>
           <t>65</t>
         </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="9">
@@ -1060,6 +1075,9 @@
           <t>25</t>
         </is>
       </c>
+      <c r="AL9" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1135,6 +1153,9 @@
           <t>130</t>
         </is>
       </c>
+      <c r="AL10" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1206,6 +1227,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="AL11" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
@@ -1280,6 +1304,9 @@
         <is>
           <t>10.5</t>
         </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="13">
@@ -1352,6 +1379,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL13" t="n">
+        <v>8250</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -1423,6 +1453,9 @@
           <t>65</t>
         </is>
       </c>
+      <c r="AL14" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -1493,6 +1526,9 @@
         <is>
           <t>60</t>
         </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="16">
@@ -1564,6 +1600,9 @@
         <is>
           <t>90</t>
         </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="17">
@@ -1636,6 +1675,9 @@
           <t>7.5</t>
         </is>
       </c>
+      <c r="AL17" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
@@ -1714,6 +1756,9 @@
         <is>
           <t>19</t>
         </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="19">
@@ -1786,6 +1831,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AL19" t="n">
+        <v>33984</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr"/>
